--- a/SpecsDevices.xlsx
+++ b/SpecsDevices.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1739DDB7-77D3-4E4F-B68B-F9C632FC887C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC74F96-0595-4BEC-BB5C-0F85BC9B7920}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="1344" windowWidth="17280" windowHeight="11016"/>
+    <workbookView xWindow="12492" yWindow="768" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Specificaties</t>
   </si>
@@ -110,12 +110,18 @@
   </si>
   <si>
     <t>Ja, On-device-training kan miss nog een probleem vormen</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral Dev </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,10 +528,11 @@
     <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +545,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -564,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -578,7 +591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -592,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -603,7 +616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -617,7 +630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -633,9 +646,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/SpecsDevices.xlsx
+++ b/SpecsDevices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC74F96-0595-4BEC-BB5C-0F85BC9B7920}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDA984-0518-403D-8F12-F81AE7040DD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12492" yWindow="768" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13884" yWindow="1644" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Specificaties</t>
   </si>
@@ -112,17 +112,53 @@
     <t>Ja, On-device-training kan miss nog een probleem vormen</t>
   </si>
   <si>
-    <t>Raspberry Pi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coral Dev </t>
+  </si>
+  <si>
+    <t>Broadcom BCM2711, Quad core Cortex-A72 (ARM v8) 64-bit SoC @ 1.5GHz</t>
+  </si>
+  <si>
+    <t>1GB, 2GB or 4GB LPDDR4-3200 SDRAM </t>
+  </si>
+  <si>
+    <t>micro SD-kaart</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/products/raspberry-pi-4-model-b/specifications/</t>
+  </si>
+  <si>
+    <t>Raspberry Pi model 4</t>
+  </si>
+  <si>
+    <t>2,8-5,2 W</t>
+  </si>
+  <si>
+    <t>ja, oppassen for memory https://developer.arm.com/solutions/machine-learning-on-arm/developer-material/how-to-guides/cross-compiling-arm-nn-for-the-raspberry-pi-and-tensorflow</t>
+  </si>
+  <si>
+    <t>Integrated GC7000 Lite Graphics.</t>
+  </si>
+  <si>
+    <t>NXP i.MX 8M SOC (quad Cortex-A53, Cortex-M4F) + coprocessor Google Edge TPU</t>
+  </si>
+  <si>
+    <t>flash:  8GB eMMC.</t>
+  </si>
+  <si>
+    <t>RAM 1GB LPDDR4</t>
+  </si>
+  <si>
+    <t>ja maakt gebruik van TensorFlow Lite</t>
+  </si>
+  <si>
+    <t>https://www.makeuseof.com/tag/google-coral-dev-board-raspberry-pi/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +188,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -191,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +243,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,17 +561,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -562,6 +605,9 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -576,6 +622,12 @@
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -590,6 +642,12 @@
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -604,6 +662,12 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -615,6 +679,9 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -629,6 +696,12 @@
       <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -642,6 +715,12 @@
       </c>
       <c r="D8" t="s">
         <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +728,10 @@
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{8631F587-3731-430C-99D2-9F19CB49D0D8}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{0E46DECC-5FF5-4197-9ADB-BB474BEE523F}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/SpecsDevices.xlsx
+++ b/SpecsDevices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDA984-0518-403D-8F12-F81AE7040DD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB7206-A90A-49CC-8C52-F6C808B958E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13884" yWindow="1644" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21456" yWindow="1776" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,7 +562,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
     <col min="3" max="3" width="57.33203125" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" customWidth="1"/>
     <col min="5" max="5" width="67" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
